--- a/Assignment3/Table_Logit.xlsx
+++ b/Assignment3/Table_Logit.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\PlanningbyNumbers\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E478EB39-1D42-4FE5-9F26-BD74979EA462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE17F88-CD58-42A0-9810-47D86A2936AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{7617A74B-B7C1-483F-A507-C996D1318B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="245">
   <si>
     <t>Call:</t>
   </si>
@@ -593,13 +595,469 @@
   <si>
     <t>-1.340** (0.465)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.671*** (0.3732)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.235*** (0.3654)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coefficients :</t>
+  </si>
+  <si>
+    <r>
+      <t>Signif. codes:  0 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585260"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A9292"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' 0.001 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585260"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A9292"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' 0.01 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585260"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A9292"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' 0.05 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585260"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A9292"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' 0.1 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585260"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A9292"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Log-Likelihood: -284.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McFadden R^2:  0.54312 </t>
+  </si>
+  <si>
+    <t>Likelihood ratio test : chisq = 675.88 (p.value = &lt; 2.22e-16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept):bike                          -3.1266e+01  7.0075e+03 -0.0045 0.9964400    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Intercept):bike   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept):transit                       -2.0605e+01  4.6374e+03 -0.0044 0.9964549    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept):transit       </t>
+  </si>
+  <si>
+    <t>cost                                      -9.6862e-01  1.7638e-01 -5.4917 3.982e-08 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cost                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time                                       3.7029e-02  1.3519e-02  2.7391 0.0061609 ** </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">time     </t>
+  </si>
+  <si>
+    <t>household_size:bike                        6.6350e-01  1.9487e-01  3.4048 0.0006621 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">household_size:bike    </t>
+  </si>
+  <si>
+    <t>household_size:transit                     5.3495e-01  1.2736e-01  4.2002 2.667e-05 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">household_size:transit </t>
+  </si>
+  <si>
+    <t>total_veh:bike                            -2.1547e+00  3.2927e-01 -6.5437 6.002e-11 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">total_veh:bike      </t>
+  </si>
+  <si>
+    <t>total_veh:transit                         -1.3693e+00  2.1790e-01 -6.2840 3.299e-10 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">total_veh:transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyBurlington:bike                      1.7704e+01  5.5226e+03  0.0032 0.9974422    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">countyBurlington:bike  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyBurlington:transit                   7.8153e-01  1.1522e+00  0.6783 0.4975982    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyBurlington:transit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyCamden:bike                         -2.4810e+00  8.5208e+03 -0.0003 0.9997677    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyCamden:bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyCamden:transit                      -1.8807e-01  1.0393e+00 -0.1810 0.8563973    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyCamden:transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyChester:transit                     -5.7242e-01  1.4018e+00 -0.4083 0.6830312    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">countyChester:bike                        -1.2117e+00  8.0259e+03 -0.0002 0.9998795    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyChester:transit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyChester:bike        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyDelaware:transit                     1.2640e+00  9.1000e-01  1.3890 0.1648413    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">countyDelaware:transit     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyDelaware:bike                        1.7091e+01  5.5226e+03  0.0031 0.9975308    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyDelaware:bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyGloucester:bike                      1.9902e-01  1.0844e+04  0.0000 0.9999854    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyGloucester:bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyGloucester:transit                   2.6328e+00  1.1825e+00  2.2265 0.0259833 *  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyGloucester:transit    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyMercer:bike                         -2.4263e+00  1.1942e+04 -0.0002 0.9998379    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyMercer:bike        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyMercer:transit                      -1.9870e+01  1.0403e+04 -0.0019 0.9984760    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyMercer:transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyMontgomery:bike                      1.6676e+01  5.5226e+03  0.0030 0.9975906    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyMontgomery:bike                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyMontgomery:transit                   3.4362e-01  8.8263e-01  0.3893 0.6970439    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyMontgomery:transit      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyPhiladelphia:bike                    1.6978e+01  5.5226e+03  0.0031 0.9975471    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyPhiladelphia:bike </t>
+  </si>
+  <si>
+    <t xml:space="preserve">countyPhiladelphia:transit                 1.6523e+00  9.1492e-01  1.8060 0.0709183 .  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countyPhiladelphia:transit    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeSuburban:bike                     1.7225e+01  4.3135e+03  0.0040 0.9968139    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeSuburban:bike   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeSuburban:transit                  2.1069e+01  4.6374e+03  0.0045 0.9963750    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_typeSuburban:transit       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeUrban:bike                        1.8149e+01  4.3135e+03  0.0042 0.9966429    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeUrban:bike    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeUrban:transit                     2.2543e+01  4.6374e+03  0.0049 0.9961214    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">area_typeUrban:transit     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomehigh_income:bike                  2.1891e+00  7.0839e-01  3.0903 0.0019997 ** </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomehigh_income:bike  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomehigh_income:transit               1.3596e+00  5.2525e-01  2.5885 0.0096397 ** </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomemiddle_income:bike                8.8492e-01  5.8344e-01  1.5167 0.1293316    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomemiddle_income:bike  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomehigh_income:transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomemiddle_income:transit             1.1189e+00  4.0652e-01  2.7525 0.0059136 ** </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_incomemiddle_income:transit   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver_licenseYes:bike                    -1.1316e+00  1.0003e+00 -1.1314 0.2579066    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_licenseYes:bike </t>
+  </si>
+  <si>
+    <t>driver_licenseYes:transit                 -3.2715e+00  6.5436e-01 -4.9996 5.746e-07 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">driver_licenseYes:transit   </t>
+  </si>
+  <si>
+    <t>parking_subsidyNo Parking Subsidy:bike     1.5847e+00  4.6016e-01  3.4437 0.0005738 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">parking_subsidyNo Parking Subsidy:bike </t>
+  </si>
+  <si>
+    <t>parking_subsidyNo Parking Subsidy:transit  1.9403e+00  3.1429e-01  6.1736 6.675e-10 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">parking_subsidyNo Parking Subsidy:transit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking_subsidySubsidized Parking:bike     2.0244e+00  8.4379e-01  2.3992 0.0164297 *  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking_subsidySubsidized Parking:bike  </t>
+  </si>
+  <si>
+    <t>parking_subsidySubsidized Parking:transit  2.8800e+00  6.7368e-01  4.2750 1.912e-05 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">parking_subsidySubsidized Parking:transit  </t>
+  </si>
+  <si>
+    <t>-0.96862  ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.037029  **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6635  ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53495 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.1547 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.3693 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6328  *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1891  **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3596  **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1189  **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.2715  ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5847  ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9403  ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0244  *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.88  ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Estimate  Std. Error z-value  Pr(&gt;|z|)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>Estimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="191" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +1100,26 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A9292"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF585260"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -666,12 +1144,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,8 +1180,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1250,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E99565C-D40D-4776-A521-E1E5F9503199}">
   <dimension ref="E1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="E6:E38 G6:G38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1526,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>16</v>
@@ -1540,7 +2040,7 @@
         <v>72</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>3</v>
@@ -1702,6 +2202,639 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F9D876-F8DB-4319-B793-C48E849A6860}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF395A0-3A0F-4CCD-8C1D-E30E35ACD7F1}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="93.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="13"/>
+    <col min="11" max="11" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="11">
+        <v>-31.265999999999998</v>
+      </c>
+      <c r="M3" s="13">
+        <v>7007.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="11">
+        <v>-20.605</v>
+      </c>
+      <c r="M4" s="13">
+        <v>4637.3999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.17638000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1.3519E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.19486999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.12736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.32927000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.21790000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="11">
+        <v>17.704000000000001</v>
+      </c>
+      <c r="M11" s="13">
+        <v>5522.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.78152999999999995</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1.1521999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-2.4809999999999999</v>
+      </c>
+      <c r="M13" s="13">
+        <v>8520.7999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="11">
+        <v>-0.18806999999999999</v>
+      </c>
+      <c r="M14" s="13">
+        <v>1.0392999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="11">
+        <v>-1.2117</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1.4017999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="11">
+        <v>-0.57242000000000004</v>
+      </c>
+      <c r="M16" s="13">
+        <v>1.4017999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="11">
+        <v>17.091000000000001</v>
+      </c>
+      <c r="M17" s="13">
+        <v>5522.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1.264</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.19902</v>
+      </c>
+      <c r="M19" s="13">
+        <v>10844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="13">
+        <v>1.1825000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="11">
+        <v>-2.4262999999999999</v>
+      </c>
+      <c r="M21" s="13">
+        <v>11942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="11">
+        <v>-19.87</v>
+      </c>
+      <c r="M22" s="13">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="11">
+        <v>16.675999999999998</v>
+      </c>
+      <c r="M23" s="13">
+        <v>5522.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.34361999999999998</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.88263000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="11">
+        <v>16.978000000000002</v>
+      </c>
+      <c r="M25" s="13">
+        <v>5522.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1.6523000000000001</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0.91491999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="11">
+        <v>17.225000000000001</v>
+      </c>
+      <c r="M27" s="13">
+        <v>4313.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" s="11">
+        <v>21.068999999999999</v>
+      </c>
+      <c r="M28" s="13">
+        <v>4637.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="11">
+        <v>18.149000000000001</v>
+      </c>
+      <c r="M29" s="13">
+        <v>4313.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="11">
+        <v>22.542999999999999</v>
+      </c>
+      <c r="M30" s="13">
+        <v>4637.3999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0.70838999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0.52524999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.88492000000000004</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.58343999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.40651999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="11">
+        <v>-1.1315999999999999</v>
+      </c>
+      <c r="M35" s="13">
+        <v>1.0003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0.65436000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0.46016000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K38" t="s">
+        <v>222</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0.31429000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0.84379000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" t="s">
+        <v>226</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0.67367999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="K41" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="K42" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="K44" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="K45" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="K46" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF103EA3-5403-4FB5-ADD9-E3E57352A621}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -2037,11 +3170,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC39F5-C841-47E4-B37D-1B299080781C}">
   <dimension ref="F1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
